--- a/data/trans_orig/P16A09-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A09-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>29139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20878</v>
+        <v>20346</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39811</v>
+        <v>41278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04988342925740148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03574210249675122</v>
+        <v>0.03483070220909683</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06815336514719665</v>
+        <v>0.07066505087748941</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -765,19 +765,19 @@
         <v>70529</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55169</v>
+        <v>55841</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88114</v>
+        <v>87926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07646785611326033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05981423853916874</v>
+        <v>0.06054373205265946</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09553376027208239</v>
+        <v>0.09533030171096127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -786,19 +786,19 @@
         <v>99668</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82101</v>
+        <v>84056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119345</v>
+        <v>120883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06615964041160537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05449891889475702</v>
+        <v>0.05579657207237951</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07922109494649622</v>
+        <v>0.08024245894416303</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>555002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>544330</v>
+        <v>542863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>563263</v>
+        <v>563795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9501165707425985</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9318466348528032</v>
+        <v>0.9293349491225105</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9642578975032488</v>
+        <v>0.9651692977909031</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>816</v>
@@ -836,19 +836,19 @@
         <v>851804</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>834219</v>
+        <v>834407</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>867164</v>
+        <v>866492</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9235321438867397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9044662397279176</v>
+        <v>0.9046696982890388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9401857614608313</v>
+        <v>0.9394562679473405</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1358</v>
@@ -857,19 +857,19 @@
         <v>1406806</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1387129</v>
+        <v>1385591</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1424373</v>
+        <v>1422418</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9338403595883946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9207789050535037</v>
+        <v>0.919757541055837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.945501081105243</v>
+        <v>0.9442034279276205</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>30393</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21080</v>
+        <v>20773</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41940</v>
+        <v>42509</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02819645159260654</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01955694687652976</v>
+        <v>0.01927147364159999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0389093525131578</v>
+        <v>0.03943680732645213</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -982,19 +982,19 @@
         <v>50236</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36727</v>
+        <v>37586</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65805</v>
+        <v>67593</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04750309451550538</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03472834116099999</v>
+        <v>0.0355414967862715</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06222464355663412</v>
+        <v>0.06391536092181144</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -1003,19 +1003,19 @@
         <v>80629</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63046</v>
+        <v>64481</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99358</v>
+        <v>99534</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03775775266077615</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02952373484306923</v>
+        <v>0.03019560035560978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04652815774971883</v>
+        <v>0.0466108984238043</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1047501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1035954</v>
+        <v>1035385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1056814</v>
+        <v>1057121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9718035484073935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9610906474868423</v>
+        <v>0.9605631926735478</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9804430531234702</v>
+        <v>0.9807285263584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>981</v>
@@ -1053,19 +1053,19 @@
         <v>1007302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>991733</v>
+        <v>989945</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1020811</v>
+        <v>1019952</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9524969054844946</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9377753564433658</v>
+        <v>0.9360846390781886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.965271658839</v>
+        <v>0.9644585032137286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2005</v>
@@ -1074,19 +1074,19 @@
         <v>2054803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2036074</v>
+        <v>2035898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2072386</v>
+        <v>2070951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9622422473392238</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9534718422502814</v>
+        <v>0.9533891015761957</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9704762651569309</v>
+        <v>0.9698043996443904</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11057</v>
+        <v>10476</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27952</v>
+        <v>27291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01626356110155184</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009867333603766813</v>
+        <v>0.009348821922295343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02494464110639948</v>
+        <v>0.02435441574256043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1199,19 +1199,19 @@
         <v>33189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23519</v>
+        <v>22680</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46972</v>
+        <v>46366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03339154585644421</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02366270095452962</v>
+        <v>0.02281816608275377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04725851832828866</v>
+        <v>0.04664827858763568</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1220,19 +1220,19 @@
         <v>51414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38766</v>
+        <v>39160</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68271</v>
+        <v>66605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02431466344573264</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01833310758813754</v>
+        <v>0.0185194158480601</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03228701462457544</v>
+        <v>0.03149886812866937</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1102351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1092624</v>
+        <v>1093285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1109519</v>
+        <v>1110100</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9837364388984482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9750553588936004</v>
+        <v>0.9756455842574395</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9901326663962331</v>
+        <v>0.9906511780777045</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>951</v>
@@ -1270,19 +1270,19 @@
         <v>960751</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>946968</v>
+        <v>947574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>970421</v>
+        <v>971260</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9666084541435558</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9527414816717116</v>
+        <v>0.9533517214123645</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9763372990454704</v>
+        <v>0.9771818339172462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2034</v>
@@ -1291,19 +1291,19 @@
         <v>2063102</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2046245</v>
+        <v>2047911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2075750</v>
+        <v>2075356</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9756853365542674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.967712985375425</v>
+        <v>0.9685011318713311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9816668924118626</v>
+        <v>0.9814805841519402</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>17536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9617</v>
+        <v>10126</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27963</v>
+        <v>27574</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0392131969041614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02150380630788825</v>
+        <v>0.0226437863912332</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06252801240578565</v>
+        <v>0.06165965159831037</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1416,19 +1416,19 @@
         <v>9884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4855</v>
+        <v>4866</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18891</v>
+        <v>19019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02897121710252852</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01423090689905931</v>
+        <v>0.01426447105721781</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05537416243663205</v>
+        <v>0.05574761431726996</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1437,19 +1437,19 @@
         <v>27420</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18055</v>
+        <v>17714</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40781</v>
+        <v>39155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03478102806369756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02290244346254193</v>
+        <v>0.02247000382127302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05172914679473999</v>
+        <v>0.04966713567592754</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>429664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>419237</v>
+        <v>419626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>437583</v>
+        <v>437074</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9607868030958386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9374719875942146</v>
+        <v>0.9383403484016908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.978496193692112</v>
+        <v>0.977356213608767</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>330</v>
@@ -1487,19 +1487,19 @@
         <v>331274</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322267</v>
+        <v>322139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336303</v>
+        <v>336292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9710287828974715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.944625837563368</v>
+        <v>0.9442523856827303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9857690931009406</v>
+        <v>0.9857355289427823</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>750</v>
@@ -1508,19 +1508,19 @@
         <v>760938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747577</v>
+        <v>749203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>770303</v>
+        <v>770644</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9652189719363025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9482708532052601</v>
+        <v>0.9503328643240725</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9770975565374583</v>
+        <v>0.9775299961787269</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>95292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78914</v>
+        <v>76621</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115025</v>
+        <v>114425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02950403018830636</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02443295177881695</v>
+        <v>0.0237229846245589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0356135710426644</v>
+        <v>0.03542776734324838</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -1633,19 +1633,19 @@
         <v>163838</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>138664</v>
+        <v>138517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>191363</v>
+        <v>187963</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04942372502075303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04182968586726309</v>
+        <v>0.04178541810710574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05772684267945218</v>
+        <v>0.05670135846916115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>254</v>
@@ -1654,19 +1654,19 @@
         <v>259131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>229042</v>
+        <v>226842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291748</v>
+        <v>291324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03959347060168722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03499616808328712</v>
+        <v>0.03465994525880394</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04457719813287901</v>
+        <v>0.04451245545674085</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3134519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3114786</v>
+        <v>3115386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3150897</v>
+        <v>3153190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9704959698116936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9643864289573356</v>
+        <v>0.9645722326567514</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9755670482211828</v>
+        <v>0.976277015375441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3078</v>
@@ -1704,19 +1704,19 @@
         <v>3151131</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3123606</v>
+        <v>3127006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3176305</v>
+        <v>3176452</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.950576274979247</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9422731573205477</v>
+        <v>0.9432986415308389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9581703141327369</v>
+        <v>0.9582145818928942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6147</v>
@@ -1725,19 +1725,19 @@
         <v>6285649</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6253032</v>
+        <v>6253456</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6315738</v>
+        <v>6317938</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9604065293983127</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9554228018671213</v>
+        <v>0.9554875445432591</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9650038319167129</v>
+        <v>0.9653400547411962</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>21505</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13728</v>
+        <v>13247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33187</v>
+        <v>33050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0206814357164857</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01320190904117941</v>
+        <v>0.01273999906270811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03191572818106912</v>
+        <v>0.03178463637837313</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -2090,19 +2090,19 @@
         <v>73234</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58485</v>
+        <v>58164</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93294</v>
+        <v>91448</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06575610843334899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05251365571424424</v>
+        <v>0.0522254505922949</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08376781928805829</v>
+        <v>0.08211031267537952</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2111,19 +2111,19 @@
         <v>94739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76074</v>
+        <v>76879</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115541</v>
+        <v>115387</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0439921402483158</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0353251690049742</v>
+        <v>0.03569904719735733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0536520188727474</v>
+        <v>0.0535804475913162</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1018312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1006630</v>
+        <v>1006767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1026089</v>
+        <v>1026570</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9793185642835143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9680842718189309</v>
+        <v>0.9682153636216274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867980909588205</v>
+        <v>0.9872600009372919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>957</v>
@@ -2161,19 +2161,19 @@
         <v>1040482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1020422</v>
+        <v>1022268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1055231</v>
+        <v>1055552</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.934243891566651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9162321807119418</v>
+        <v>0.9178896873246205</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9474863442857557</v>
+        <v>0.9477745494077051</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1912</v>
@@ -2182,19 +2182,19 @@
         <v>2058794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2037992</v>
+        <v>2038146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2077459</v>
+        <v>2076654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9560078597516842</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9463479811272527</v>
+        <v>0.9464195524086837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9646748309950258</v>
+        <v>0.9643009528026425</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>14530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8117</v>
+        <v>8145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24441</v>
+        <v>24544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01490938886867094</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008328703368183537</v>
+        <v>0.008357886463242913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02507940904124407</v>
+        <v>0.02518521392741119</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -2307,19 +2307,19 @@
         <v>57772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45150</v>
+        <v>43778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76161</v>
+        <v>72801</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05289617379938232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04133967420732421</v>
+        <v>0.04008356593359619</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06973344206184473</v>
+        <v>0.06665667928386471</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -2328,19 +2328,19 @@
         <v>72302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56107</v>
+        <v>56784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91464</v>
+        <v>91361</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03498398442570903</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02714815874321397</v>
+        <v>0.02747578692101089</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04425573891489686</v>
+        <v>0.04420592674665687</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>959999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>950088</v>
+        <v>949985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>966412</v>
+        <v>966384</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.985090611131329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9749205909587562</v>
+        <v>0.9748147860725886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9916712966318164</v>
+        <v>0.991642113536757</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>963</v>
@@ -2378,19 +2378,19 @@
         <v>1034405</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1016016</v>
+        <v>1019376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1047027</v>
+        <v>1048399</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9471038262006177</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9302665579381553</v>
+        <v>0.9333433207161352</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9586603257926758</v>
+        <v>0.9599164340664038</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1871</v>
@@ -2399,19 +2399,19 @@
         <v>1994405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1975243</v>
+        <v>1975346</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2010600</v>
+        <v>2009923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.965016015574291</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9557442610851031</v>
+        <v>0.9557940732533431</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.972851841256786</v>
+        <v>0.9725242130789891</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>17269</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9947</v>
+        <v>10306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28424</v>
+        <v>26915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0195310048626655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01125008960791567</v>
+        <v>0.01165632870953734</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03214718078233948</v>
+        <v>0.03044085819746319</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -2524,19 +2524,19 @@
         <v>46830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34026</v>
+        <v>34243</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62576</v>
+        <v>61737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05359225466449184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03893928405677664</v>
+        <v>0.03918734087844815</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0716110672077771</v>
+        <v>0.070650976732654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -2545,19 +2545,19 @@
         <v>64099</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49451</v>
+        <v>48913</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81773</v>
+        <v>83976</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03646126381477639</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02812907492321217</v>
+        <v>0.02782284906183216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04651476011011348</v>
+        <v>0.04776768092069492</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>866916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>855761</v>
+        <v>857270</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874238</v>
+        <v>873879</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9804689951373345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9678528192176602</v>
+        <v>0.9695591418025368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9887499103920844</v>
+        <v>0.9883436712904626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>777</v>
@@ -2595,19 +2595,19 @@
         <v>826995</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>811249</v>
+        <v>812088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>839799</v>
+        <v>839582</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9464077453355082</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.928388932792223</v>
+        <v>0.9293490232673458</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9610607159432233</v>
+        <v>0.9608126591215519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1590</v>
@@ -2616,19 +2616,19 @@
         <v>1693911</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1676237</v>
+        <v>1674034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1708559</v>
+        <v>1709097</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9635387361852236</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9534852398898863</v>
+        <v>0.9522323190793049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9718709250767875</v>
+        <v>0.9721771509381677</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>16966</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8794</v>
+        <v>9257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29121</v>
+        <v>28717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03372767967993244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01748276608938309</v>
+        <v>0.01840179536686282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05789149784802241</v>
+        <v>0.05708879754766272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -2741,19 +2741,19 @@
         <v>27574</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17464</v>
+        <v>17980</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41458</v>
+        <v>40034</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06129909979327713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03882420809468541</v>
+        <v>0.03996975968622785</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09216486924527184</v>
+        <v>0.08899745578531097</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -2762,19 +2762,19 @@
         <v>44540</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31097</v>
+        <v>32809</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60568</v>
+        <v>59870</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04674379212885501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03263545749774985</v>
+        <v>0.03443271271482996</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06356529207572352</v>
+        <v>0.0628321504258601</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>486057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473902</v>
+        <v>474306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>494229</v>
+        <v>493766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9662723203200676</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9421085021519779</v>
+        <v>0.9429112024523373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.982517233910617</v>
+        <v>0.9815982046331372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>385</v>
@@ -2812,19 +2812,19 @@
         <v>422255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>408371</v>
+        <v>409795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>432365</v>
+        <v>431849</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9387009002067229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9078351307547282</v>
+        <v>0.911002544214689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9611757919053145</v>
+        <v>0.9600302403137722</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>833</v>
@@ -2833,19 +2833,19 @@
         <v>908312</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>892284</v>
+        <v>892982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>921755</v>
+        <v>920043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.953256207871145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9364347079242766</v>
+        <v>0.9371678495741399</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9673645425022503</v>
+        <v>0.9655672872851702</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>70269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55073</v>
+        <v>55099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91089</v>
+        <v>90766</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02065801458173019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01619052560891723</v>
+        <v>0.0161981956894062</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02677874787770197</v>
+        <v>0.0266838088438345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>190</v>
@@ -2958,19 +2958,19 @@
         <v>205410</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>178064</v>
+        <v>178914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240590</v>
+        <v>234163</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05819726325602187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05044959447628139</v>
+        <v>0.05069049233188913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06816459661175442</v>
+        <v>0.06634359563846674</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>252</v>
@@ -2979,19 +2979,19 @@
         <v>275679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>243805</v>
+        <v>243924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>309012</v>
+        <v>312187</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0397742452640206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03517546680485394</v>
+        <v>0.03519264430685027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04458344452969519</v>
+        <v>0.04504150517645775</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3331285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3310465</v>
+        <v>3310788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3346481</v>
+        <v>3346455</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9793419854182698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9732212521222983</v>
+        <v>0.9733161911561655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9838094743910832</v>
+        <v>0.9838018043105937</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3082</v>
@@ -3029,19 +3029,19 @@
         <v>3324137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3288957</v>
+        <v>3295384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3351483</v>
+        <v>3350633</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9418027367439781</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9318354033882456</v>
+        <v>0.9336564043615333</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9495504055237186</v>
+        <v>0.9493095076681108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6206</v>
@@ -3050,19 +3050,19 @@
         <v>6655422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6622089</v>
+        <v>6618914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6687296</v>
+        <v>6687177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9602257547359794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9554165554703049</v>
+        <v>0.9549584948235422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9648245331951462</v>
+        <v>0.9648073556931498</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>16217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9925</v>
+        <v>9574</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25061</v>
+        <v>25383</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01437638640312307</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008798814167122818</v>
+        <v>0.008487564275841655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02221770065702845</v>
+        <v>0.02250265688387799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -3415,19 +3415,19 @@
         <v>65255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50814</v>
+        <v>50150</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85001</v>
+        <v>84992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05180773509457357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0403425580248687</v>
+        <v>0.03981522638026867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06748480184435236</v>
+        <v>0.06747775689117905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -3436,19 +3436,19 @@
         <v>81472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66234</v>
+        <v>62920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102134</v>
+        <v>101791</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03412336569135462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02774114022450552</v>
+        <v>0.0263531027007425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.042777454051545</v>
+        <v>0.04263376453391116</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1111780</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1102936</v>
+        <v>1102614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1118072</v>
+        <v>1118423</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9856236135968769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9777822993429715</v>
+        <v>0.9774973431161217</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912011858328771</v>
+        <v>0.9915124357241584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1131</v>
@@ -3486,19 +3486,19 @@
         <v>1194306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1174560</v>
+        <v>1174569</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1208747</v>
+        <v>1209411</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9481922649054264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9325151981556464</v>
+        <v>0.9325222431088209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9596574419751309</v>
+        <v>0.9601847736197312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2180</v>
@@ -3507,19 +3507,19 @@
         <v>2306086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2285424</v>
+        <v>2285767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2321324</v>
+        <v>2324638</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9658766343086453</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.957222545948455</v>
+        <v>0.957366235466089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9722588597754946</v>
+        <v>0.9736468972992577</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>12164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6555</v>
+        <v>6863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20557</v>
+        <v>20732</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01338481441059853</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007212925640397406</v>
+        <v>0.007551473087231459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02261971512010416</v>
+        <v>0.02281234625485367</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3632,19 +3632,19 @@
         <v>34071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23597</v>
+        <v>22072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47058</v>
+        <v>48105</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0338519951751963</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02344564298942541</v>
+        <v>0.02193035261075991</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0467551981923929</v>
+        <v>0.04779580829516536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3653,19 +3653,19 @@
         <v>46236</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33326</v>
+        <v>33703</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62071</v>
+        <v>62418</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02414015875307276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01739988609579206</v>
+        <v>0.01759647477654621</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03240798739657941</v>
+        <v>0.03258890391185569</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>896661</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>888268</v>
+        <v>888093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>902270</v>
+        <v>901962</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866151855894014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9773802848798958</v>
+        <v>0.9771876537451464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927870743596026</v>
+        <v>0.9924485269127685</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>921</v>
@@ -3703,19 +3703,19 @@
         <v>972404</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>959417</v>
+        <v>958370</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982878</v>
+        <v>984403</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9661480048248037</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.953244801807607</v>
+        <v>0.9522041917048347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9765543570105746</v>
+        <v>0.9780696473892404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1789</v>
@@ -3724,19 +3724,19 @@
         <v>1869064</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1853229</v>
+        <v>1852882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1881974</v>
+        <v>1881597</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9758598412469273</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9675920126034205</v>
+        <v>0.9674110960881444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9826001139042079</v>
+        <v>0.9824035252234538</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>9626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4723</v>
+        <v>4775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18639</v>
+        <v>18103</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01168500554515945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005733493913265616</v>
+        <v>0.005796774568660038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02262640753292935</v>
+        <v>0.0219763736721884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -3849,19 +3849,19 @@
         <v>26291</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17480</v>
+        <v>16995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37659</v>
+        <v>38384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03409751362704845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02266981019412344</v>
+        <v>0.02204112088415673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0488408405473349</v>
+        <v>0.04978027078975226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -3870,19 +3870,19 @@
         <v>35917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25865</v>
+        <v>25014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50854</v>
+        <v>49067</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02252095007178185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01621805078985287</v>
+        <v>0.01568483332310164</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03188697994148272</v>
+        <v>0.03076658096288135</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>814133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>805120</v>
+        <v>805656</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>819036</v>
+        <v>818984</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9883149944548405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9773735924670707</v>
+        <v>0.9780236263278116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9942665060867344</v>
+        <v>0.99420322543134</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>704</v>
@@ -3920,19 +3920,19 @@
         <v>744768</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>733400</v>
+        <v>732675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>753579</v>
+        <v>754064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9659024863729515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.951159159452665</v>
+        <v>0.9502197292102478</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9773301898058767</v>
+        <v>0.9779588791158434</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1482</v>
@@ -3941,19 +3941,19 @@
         <v>1558901</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1543964</v>
+        <v>1545751</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1568953</v>
+        <v>1569804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9774790499282181</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9681130200585173</v>
+        <v>0.9692334190371183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9837819492101471</v>
+        <v>0.9843151666768981</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>6153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2470</v>
+        <v>1850</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12293</v>
+        <v>12742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.012143608682982</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004873821240475213</v>
+        <v>0.003651186258723886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0242615058107689</v>
+        <v>0.0251468638194632</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4069,16 +4069,16 @@
         <v>3342</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15570</v>
+        <v>15546</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01594766850371765</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006824690395229746</v>
+        <v>0.006825629283188434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0317956545945765</v>
+        <v>0.03174507640342605</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -4087,19 +4087,19 @@
         <v>13963</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7792</v>
+        <v>7070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24774</v>
+        <v>23094</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01401318081600601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00781975177891101</v>
+        <v>0.007095416367689866</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02486329625596849</v>
+        <v>0.0231770443159304</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>500548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>494408</v>
+        <v>493959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504231</v>
+        <v>504851</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.987856391317018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.975738494189231</v>
+        <v>0.9748531361805366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9951261787595247</v>
+        <v>0.996348813741276</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>448</v>
@@ -4137,7 +4137,7 @@
         <v>481888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>474128</v>
+        <v>474152</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>486356</v>
@@ -4146,10 +4146,10 @@
         <v>0.9840523314962824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9682043454054235</v>
+        <v>0.9682549235965739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9931753096047703</v>
+        <v>0.9931743707168116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>913</v>
@@ -4158,19 +4158,19 @@
         <v>982435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>971624</v>
+        <v>973304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>988606</v>
+        <v>989328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.985986819183994</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9751367037440315</v>
+        <v>0.9768229556840696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.992180248221089</v>
+        <v>0.9929045836323102</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>44160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32644</v>
+        <v>32531</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58530</v>
+        <v>59106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01311436987218488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009694506989216714</v>
+        <v>0.009660854261924612</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01738188701534061</v>
+        <v>0.01755314251937353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>118</v>
@@ -4283,19 +4283,19 @@
         <v>133427</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>108870</v>
+        <v>111155</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>155649</v>
+        <v>159777</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03783236827746461</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03086946884159311</v>
+        <v>0.03151724717337072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04413326464948049</v>
+        <v>0.04530388220043345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>163</v>
@@ -4304,19 +4304,19 @@
         <v>177587</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>152526</v>
+        <v>151829</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204546</v>
+        <v>205685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0257593226466639</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02212416619398041</v>
+        <v>0.02202316530064485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02966986370922274</v>
+        <v>0.02983510619882485</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3323122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3308752</v>
+        <v>3308176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3334638</v>
+        <v>3334751</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9868856301278152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9826181129846607</v>
+        <v>0.9824468574806264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9903054930107834</v>
+        <v>0.9903391457380748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3204</v>
@@ -4354,19 +4354,19 @@
         <v>3393365</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3371143</v>
+        <v>3367015</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3417922</v>
+        <v>3415637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9621676317225354</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9558667353505194</v>
+        <v>0.9546961177995663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9691305311584069</v>
+        <v>0.9684827528266293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6364</v>
@@ -4375,19 +4375,19 @@
         <v>6716488</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6689529</v>
+        <v>6688390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6741549</v>
+        <v>6742246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9742406773533361</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9703301362907772</v>
+        <v>0.9701648938011752</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9778758338060195</v>
+        <v>0.9779768346993551</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>16994</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10595</v>
+        <v>9850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26578</v>
+        <v>26154</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03407362381257791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02124413541795656</v>
+        <v>0.01975063184850995</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05328996561842776</v>
+        <v>0.05243973146416728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -4740,19 +4740,19 @@
         <v>53584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42123</v>
+        <v>42240</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66347</v>
+        <v>63984</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08592985421659502</v>
+        <v>0.08592985421659501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06755014193239207</v>
+        <v>0.06773851794427808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1063967449848095</v>
+        <v>0.10260755192662</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -4761,19 +4761,19 @@
         <v>70578</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56972</v>
+        <v>58483</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85241</v>
+        <v>85489</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06288584614376781</v>
+        <v>0.0628858461437678</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05076258482247777</v>
+        <v>0.05210890556684551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07595054799483321</v>
+        <v>0.07617202884364477</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>481745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>472161</v>
+        <v>472585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>488144</v>
+        <v>488889</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9659263761874219</v>
+        <v>0.9659263761874221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9467100343815722</v>
+        <v>0.9475602685358328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9787558645820433</v>
+        <v>0.98024936815149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>776</v>
@@ -4811,19 +4811,19 @@
         <v>569996</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>557233</v>
+        <v>559596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>581457</v>
+        <v>581340</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9140701457834048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8936032550151904</v>
+        <v>0.8973924480733801</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9324498580676078</v>
+        <v>0.9322614820557219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1212</v>
@@ -4832,19 +4832,19 @@
         <v>1051742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1037079</v>
+        <v>1036831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1065348</v>
+        <v>1063837</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9371141538562321</v>
+        <v>0.9371141538562323</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9240494520051669</v>
+        <v>0.9238279711563553</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9492374151775222</v>
+        <v>0.9478910944331543</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>24242</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16721</v>
+        <v>16417</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35178</v>
+        <v>34757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02528295334546593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01743872258770811</v>
+        <v>0.01712224663513559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0366885744673868</v>
+        <v>0.03624884283086837</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -4957,19 +4957,19 @@
         <v>68866</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57046</v>
+        <v>56824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83040</v>
+        <v>82479</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06174991748939433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05115140487538662</v>
+        <v>0.05095201518492434</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07445912206478024</v>
+        <v>0.07395605355424593</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -4978,19 +4978,19 @@
         <v>93108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77894</v>
+        <v>78408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110428</v>
+        <v>109757</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04489149966852742</v>
+        <v>0.04489149966852743</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03755586272216554</v>
+        <v>0.0378039490724567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05324209783367841</v>
+        <v>0.05291853006180694</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>934589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923653</v>
+        <v>924074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942110</v>
+        <v>942414</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9747170466545341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9633114255326133</v>
+        <v>0.9637511571691316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9825612774122919</v>
+        <v>0.9828777533648644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1490</v>
@@ -5028,19 +5028,19 @@
         <v>1046380</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1032206</v>
+        <v>1032767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1058200</v>
+        <v>1058422</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9382500825106056</v>
+        <v>0.9382500825106057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9255408779352201</v>
+        <v>0.9260439464457539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9488485951246134</v>
+        <v>0.9490479848150755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2367</v>
@@ -5049,19 +5049,19 @@
         <v>1980970</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1963650</v>
+        <v>1964321</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1996184</v>
+        <v>1995670</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9551085003314725</v>
+        <v>0.9551085003314727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9467579021663217</v>
+        <v>0.9470814699381933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9624441372778346</v>
+        <v>0.9621960509275435</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>10018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5960</v>
+        <v>5748</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18501</v>
+        <v>17549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00957339223435584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005695329046923494</v>
+        <v>0.005493126795802623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01767940078819785</v>
+        <v>0.01676937784462133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -5174,19 +5174,19 @@
         <v>50671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40439</v>
+        <v>39686</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65739</v>
+        <v>65297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04838228161981124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03861241470458355</v>
+        <v>0.03789342306562478</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06276939164636107</v>
+        <v>0.06234704144518702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -5195,19 +5195,19 @@
         <v>60690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49514</v>
+        <v>49091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77186</v>
+        <v>76069</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02898553959406364</v>
+        <v>0.02898553959406365</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02364826427819522</v>
+        <v>0.02344597723791733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03686409183361273</v>
+        <v>0.03633056472213263</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1036461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1027978</v>
+        <v>1028930</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1040519</v>
+        <v>1040731</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9904266077656442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.982320599211802</v>
+        <v>0.9832306221553787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9943046709530765</v>
+        <v>0.9945068732041973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1434</v>
@@ -5245,19 +5245,19 @@
         <v>996639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>981571</v>
+        <v>982013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1006871</v>
+        <v>1007624</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9516177183801887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9372306083536392</v>
+        <v>0.9376529585548131</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9613875852954167</v>
+        <v>0.9621065769343755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2449</v>
@@ -5266,19 +5266,19 @@
         <v>2033100</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2016604</v>
+        <v>2017721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2044276</v>
+        <v>2044699</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9710144604059362</v>
+        <v>0.9710144604059364</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9631359081663872</v>
+        <v>0.9636694352778673</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9763517357218044</v>
+        <v>0.9765540227620826</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>14546</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8596</v>
+        <v>8033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22870</v>
+        <v>22905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01490471190492872</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008808210726783419</v>
+        <v>0.008231136486524751</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.023434339858581</v>
+        <v>0.02347010686101823</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -5391,19 +5391,19 @@
         <v>28339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20893</v>
+        <v>20884</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36639</v>
+        <v>37312</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03121849723859703</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02301538017944091</v>
+        <v>0.02300607465597968</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04036126303277491</v>
+        <v>0.04110345963143167</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -5412,19 +5412,19 @@
         <v>42885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33116</v>
+        <v>32883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54434</v>
+        <v>55083</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0227664557792121</v>
+        <v>0.02276645577921209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01758039737523045</v>
+        <v>0.01745659185908487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02889738292413486</v>
+        <v>0.02924184391780449</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>961383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>953059</v>
+        <v>953024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>967333</v>
+        <v>967896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9850952880950713</v>
+        <v>0.9850952880950714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9765656601414191</v>
+        <v>0.9765298931389816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9911917892732165</v>
+        <v>0.9917688635134752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1271</v>
@@ -5462,19 +5462,19 @@
         <v>879430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>871130</v>
+        <v>870457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>886876</v>
+        <v>886885</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9687815027614028</v>
+        <v>0.9687815027614031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.959638736967225</v>
+        <v>0.9588965403685684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9769846198205592</v>
+        <v>0.9769939253440203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2201</v>
@@ -5483,19 +5483,19 @@
         <v>1840814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1829265</v>
+        <v>1828616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1850583</v>
+        <v>1850816</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.977233544220788</v>
+        <v>0.9772335442207879</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9711026170758658</v>
+        <v>0.970758156082196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9824196026247699</v>
+        <v>0.9825434081409153</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>65800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53206</v>
+        <v>52473</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83174</v>
+        <v>82326</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01890822969564798</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01528913104462461</v>
+        <v>0.01507866689381766</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0239007057338688</v>
+        <v>0.02365706874060292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>331</v>
@@ -5608,19 +5608,19 @@
         <v>201461</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179351</v>
+        <v>180114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224965</v>
+        <v>224953</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05453873787088886</v>
+        <v>0.05453873787088885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04855325063617869</v>
+        <v>0.04875967590806544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06090167167996301</v>
+        <v>0.06089832576058683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>412</v>
@@ -5629,19 +5629,19 @@
         <v>267261</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239929</v>
+        <v>241883</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>293603</v>
+        <v>296399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03725473986172988</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03344484553706461</v>
+        <v>0.0337171665087748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04092660634350832</v>
+        <v>0.0413164129904888</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3414179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3396805</v>
+        <v>3397653</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3426773</v>
+        <v>3427506</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9810917703043521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9760992942661312</v>
+        <v>0.9763429312593971</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9847108689553753</v>
+        <v>0.9849213331061822</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4971</v>
@@ -5679,19 +5679,19 @@
         <v>3492445</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3468941</v>
+        <v>3468953</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3514555</v>
+        <v>3513792</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9454612621291113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9390983283200368</v>
+        <v>0.9391016742394132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9514467493638209</v>
+        <v>0.9512403240919344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8229</v>
@@ -5700,19 +5700,19 @@
         <v>6906624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6880282</v>
+        <v>6877486</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6933956</v>
+        <v>6932002</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9627452601382701</v>
+        <v>0.96274526013827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9590733936564917</v>
+        <v>0.9586835870095114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9665551544629355</v>
+        <v>0.9662828334912252</v>
       </c>
     </row>
     <row r="18">
